--- a/CargaElectron/Datos.xlsx
+++ b/CargaElectron/Datos.xlsx
@@ -5,13 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="Sheet14" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Sheet15" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="Sheet17" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="Sheet18" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="Sheet19" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="Sheet20" sheetId="20" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="10">
   <si>
     <t xml:space="preserve">I(A)</t>
   </si>
@@ -50,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en esta y en la anterior es +0.001 en 2 ultimas I </t>
   </si>
 </sst>
 </file>
@@ -259,7 +278,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="J2:J18 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,13 +293,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -295,13 +314,13 @@
       <c r="C2" s="1" t="n">
         <v>270.9</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">2*D2*A2</f>
         <v>0.002898</v>
       </c>
@@ -317,13 +336,13 @@
       <c r="C3" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">2*D3*A3</f>
         <v>0.002886</v>
       </c>
@@ -339,13 +358,13 @@
       <c r="C4" s="1" t="n">
         <v>250.3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">2*D4*A4</f>
         <v>0.002844</v>
       </c>
@@ -361,13 +380,13 @@
       <c r="C5" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">2*D5*A5</f>
         <v>0.002766</v>
       </c>
@@ -383,13 +402,13 @@
       <c r="C6" s="1" t="n">
         <v>230.2</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">2*D6*A6</f>
         <v>0.002736</v>
       </c>
@@ -405,13 +424,13 @@
       <c r="C7" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">2*D7*A7</f>
         <v>0.002688</v>
       </c>
@@ -427,13 +446,13 @@
       <c r="C8" s="1" t="n">
         <v>220.1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <f aca="false">2*D8*A8</f>
         <v>0.002664</v>
       </c>
@@ -449,13 +468,13 @@
       <c r="C9" s="1" t="n">
         <v>199.9</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">2*D9*A9</f>
         <v>0.002654</v>
       </c>
@@ -471,13 +490,13 @@
       <c r="C10" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <f aca="false">2*D10*A10</f>
         <v>0.002448</v>
       </c>
@@ -493,13 +512,13 @@
       <c r="C11" s="1" t="n">
         <v>180.3</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <f aca="false">2*D11*A11</f>
         <v>0.002416</v>
       </c>
@@ -515,13 +534,13 @@
       <c r="C12" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="D12" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <f aca="false">2*D12*A12</f>
         <v>0.002394</v>
       </c>
@@ -537,13 +556,13 @@
       <c r="C13" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <f aca="false">2*D13*A13</f>
         <v>0.002278</v>
       </c>
@@ -552,6 +571,2113 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.509056</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.003168</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.374681</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.003082</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.316484</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.003044</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.259009</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>241.1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.003006</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.143296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002928</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.414</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>1.999396</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002828</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.879641</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002742</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.7689</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.00266</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J18 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>239.8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>210.3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.544025</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.00319</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.490084</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.003156</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.365444</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.003076</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.247001</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>240.2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.002998</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.157961</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002938</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>1.990921</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002822</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.874161</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002738</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.7424</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.00264</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="J2:J18 H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.544025</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.00319</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.328676</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.003052</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.244004</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.002996</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.1609</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.00294</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>2.067844</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002876</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.827904</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002704</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.646089</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002566</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>239.8</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>220.4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J18 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.619</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -567,7 +2693,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,13 +2708,13 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -603,13 +2729,13 @@
       <c r="C2" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">2*D2*A2</f>
         <v>0.002662</v>
       </c>
@@ -625,13 +2751,13 @@
       <c r="C3" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">2*D3*A3</f>
         <v>0.002628</v>
       </c>
@@ -647,13 +2773,13 @@
       <c r="C4" s="1" t="n">
         <v>200.2</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">2*D4*A4</f>
         <v>0.002554</v>
       </c>
@@ -669,13 +2795,13 @@
       <c r="C5" s="1" t="n">
         <v>230.2</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">2*D5*A5</f>
         <v>0.002756</v>
       </c>
@@ -691,13 +2817,13 @@
       <c r="C6" s="1" t="n">
         <v>239.8</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">2*D6*A6</f>
         <v>0.002824</v>
       </c>
@@ -713,13 +2839,13 @@
       <c r="C7" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">2*D7*A7</f>
         <v>0.002836</v>
       </c>
@@ -735,13 +2861,13 @@
       <c r="C8" s="1" t="n">
         <v>260.2</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <f aca="false">2*D8*A8</f>
         <v>0.002942</v>
       </c>
@@ -757,15 +2883,219 @@
       <c r="C9" s="1" t="n">
         <v>269.7</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">2*D9*A9</f>
         <v>0.002964</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.537649</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.003186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.430481</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.003118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.325625</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.256004</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.003004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.093809</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.002894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.027776</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>219.9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.002848</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.893376</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.002752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.760929</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.002654</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +3117,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,13 +3132,13 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -823,13 +3153,13 @@
       <c r="C2" s="1" t="n">
         <v>268.3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">2*D2*A2</f>
         <v>0.002966</v>
       </c>
@@ -845,13 +3175,13 @@
       <c r="C3" s="1" t="n">
         <v>259.6</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">2*D3*A3</f>
         <v>0.002908</v>
       </c>
@@ -867,13 +3197,13 @@
       <c r="C4" s="1" t="n">
         <v>249.3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">2*D4*A4</f>
         <v>0.002772</v>
       </c>
@@ -889,13 +3219,13 @@
       <c r="C5" s="1" t="n">
         <v>240.4</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">2*D5*A5</f>
         <v>0.002722</v>
       </c>
@@ -911,13 +3241,13 @@
       <c r="C6" s="1" t="n">
         <v>230.3</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">2*D6*A6</f>
         <v>0.002634</v>
       </c>
@@ -933,13 +3263,13 @@
       <c r="C7" s="1" t="n">
         <v>220.9</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">2*D7*A7</f>
         <v>0.002592</v>
       </c>
@@ -955,13 +3285,13 @@
       <c r="C8" s="1" t="n">
         <v>210.5</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <f aca="false">2*D8*A8</f>
         <v>0.00251</v>
       </c>
@@ -977,13 +3307,13 @@
       <c r="C9" s="1" t="n">
         <v>199.8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">2*D9*A9</f>
         <v>0.00243</v>
       </c>
@@ -1006,8 +3336,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,13 +3352,13 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1043,13 +3373,13 @@
       <c r="C2" s="1" t="n">
         <v>271.3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">2*D2*A2</f>
         <v>0.002968</v>
       </c>
@@ -1065,13 +3395,13 @@
       <c r="C3" s="1" t="n">
         <v>258.4</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">2*D3*A3</f>
         <v>0.002918</v>
       </c>
@@ -1087,13 +3417,13 @@
       <c r="C4" s="1" t="n">
         <v>248.4</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">2*D4*A4</f>
         <v>0.002826</v>
       </c>
@@ -1109,13 +3439,13 @@
       <c r="C5" s="1" t="n">
         <v>239.3</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">2*D5*A5</f>
         <v>0.002748</v>
       </c>
@@ -1131,13 +3461,13 @@
       <c r="C6" s="1" t="n">
         <v>230.3</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">2*D6*A6</f>
         <v>0.002712</v>
       </c>
@@ -1153,13 +3483,13 @@
       <c r="C7" s="1" t="n">
         <v>220.8</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">2*D7*A7</f>
         <v>0.002644</v>
       </c>
@@ -1175,13 +3505,13 @@
       <c r="C8" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <f aca="false">2*D8*A8</f>
         <v>0.002582</v>
       </c>
@@ -1197,15 +3527,1115 @@
       <c r="C9" s="1" t="n">
         <v>198.8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">2*D9*A9</f>
         <v>0.0025</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:J18 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.229049</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.002986</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.024929</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.002846</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>1.920996</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.002772</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.381</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>1.907161</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>240.4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.002762</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>1.737124</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002636</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>1.682209</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002594</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.542564</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002484</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.461681</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002418</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.350089</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.003066</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.169729</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.002946</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.036329</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.002854</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.059225</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.00287</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>1.954404</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002796</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>1.844164</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002716</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.7424</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.00264</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.595169</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002526</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.353156</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.003068</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.2801</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.00302</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.196324</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.002964</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.119936</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.002912</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.414</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>1.999396</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002828</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>1.943236</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002788</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.8225</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.758276</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002652</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.5281</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.00318</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.3716</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.00308</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.322576</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.003048</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.283121</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>239.9</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.003022</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.166784</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002944</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>2.062096</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002872</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.943236</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002788</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.790244</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002676</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="J2:J18 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2*A2</f>
+        <v>2.461761</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">2*D2*A2</f>
+        <v>0.003138</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">A3*A3</f>
+        <v>2.393209</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">2*D3*A3</f>
+        <v>0.003094</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4*A4</f>
+        <v>2.328676</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">2*D4*A4</f>
+        <v>0.003052</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">A5*A5</f>
+        <v>2.202256</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>240.2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">2*D5*A5</f>
+        <v>0.002968</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6*A6</f>
+        <v>2.122849</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">2*D6*A6</f>
+        <v>0.002914</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">A7*A7</f>
+        <v>2.024929</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">2*D7*A7</f>
+        <v>0.002846</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">A8*A8</f>
+        <v>1.934881</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">2*D8*A8</f>
+        <v>0.002782</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">A9*A9</f>
+        <v>1.806336</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">2*D9*A9</f>
+        <v>0.002688</v>
       </c>
     </row>
   </sheetData>
